--- a/data/trans_dic/MCS12_SP_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,17; 45,58</t>
+          <t>36,16; 45,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,3; 55,65</t>
+          <t>45,79; 55,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,65; 52,77</t>
+          <t>42,9; 52,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,38; 46,5</t>
+          <t>37,09; 46,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,72; 56,74</t>
+          <t>45,3; 56,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,16; 62,35</t>
+          <t>50,22; 62,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,17; 54,05</t>
+          <t>42,92; 54,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,36; 48,94</t>
+          <t>40,72; 48,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,29; 48,45</t>
+          <t>40,99; 48,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,99; 56,95</t>
+          <t>49,27; 56,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44,46; 51,72</t>
+          <t>44,41; 51,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,04; 46,17</t>
+          <t>40,08; 46,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,95; 44,62</t>
+          <t>33,7; 44,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,2; 53,51</t>
+          <t>43,33; 53,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,81; 51,36</t>
+          <t>41,03; 51,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,3; 40,89</t>
+          <t>31,98; 41,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,96; 59,32</t>
+          <t>49,69; 60,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,48; 69,82</t>
+          <t>58,17; 69,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,75; 58,58</t>
+          <t>47,99; 58,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,22; 53,91</t>
+          <t>44,97; 53,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,15; 50,68</t>
+          <t>43,08; 50,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,37</t>
+          <t>51,87; 59,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,9; 53,48</t>
+          <t>46,32; 53,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,27; 45,52</t>
+          <t>39,06; 45,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,91; 48,94</t>
+          <t>40,18; 48,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,77; 57,3</t>
+          <t>49,25; 57,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,63; 55,45</t>
+          <t>46,41; 55,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 46,73</t>
+          <t>9,8; 45,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,73; 64,63</t>
+          <t>49,07; 64,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,53; 71,42</t>
+          <t>59,77; 71,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,45; 68,2</t>
+          <t>52,09; 68,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,63; 60,57</t>
+          <t>48,01; 60,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44,11; 51,32</t>
+          <t>43,93; 51,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,17; 60,21</t>
+          <t>53,32; 60,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,06; 56,96</t>
+          <t>48,98; 56,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 48,47</t>
+          <t>14,08; 48,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,18; 50,88</t>
+          <t>45,33; 50,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,11; 54,52</t>
+          <t>47,97; 54,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,44; 53,39</t>
+          <t>47,62; 53,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,47; 46,37</t>
+          <t>39,42; 46,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,69; 57,06</t>
+          <t>49,36; 57,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,31; 64,38</t>
+          <t>57,7; 65,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,85; 58,58</t>
+          <t>51,82; 58,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,68; 79,84</t>
+          <t>47,59; 79,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,91; 52,4</t>
+          <t>48,0; 52,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,04; 57,57</t>
+          <t>52,68; 57,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,09; 54,53</t>
+          <t>50,03; 54,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>44,51; 65,73</t>
+          <t>44,58; 66,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,28; 48,24</t>
+          <t>37,89; 48,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,35; 51,1</t>
+          <t>41,82; 51,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,3; 54,67</t>
+          <t>46,15; 54,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,3; 51,5</t>
+          <t>40,93; 50,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,66; 62,7</t>
+          <t>54,19; 62,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,62; 68,04</t>
+          <t>61,19; 68,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,17; 66,55</t>
+          <t>59,39; 66,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,72; 66,7</t>
+          <t>49,92; 66,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,51; 55,89</t>
+          <t>49,44; 55,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>54,74; 60,16</t>
+          <t>54,64; 60,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>54,53; 59,81</t>
+          <t>54,45; 60,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,26; 61,23</t>
+          <t>48,37; 60,32</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,93; 34,43</t>
+          <t>23,13; 33,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,69; 38,25</t>
+          <t>26,65; 37,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,09; 38,26</t>
+          <t>26,92; 38,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,21; 37,29</t>
+          <t>17,76; 37,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,83; 55,48</t>
+          <t>49,8; 55,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>57,38; 63,11</t>
+          <t>57,48; 63,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,99; 53,88</t>
+          <t>47,95; 54,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,46; 54,38</t>
+          <t>47,59; 54,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,83; 50,88</t>
+          <t>45,57; 50,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>52,34; 57,63</t>
+          <t>52,16; 57,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,24; 49,63</t>
+          <t>44,25; 49,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>41,19; 48,67</t>
+          <t>41,73; 48,64</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,59; 44,99</t>
+          <t>41,56; 45,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,24; 50,78</t>
+          <t>47,25; 50,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,52; 49,87</t>
+          <t>46,43; 49,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,9; 42,01</t>
+          <t>29,37; 41,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,39; 55,87</t>
+          <t>52,47; 55,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,17; 63,61</t>
+          <t>60,31; 63,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,15; 56,58</t>
+          <t>53,24; 56,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,8; 63,73</t>
+          <t>49,99; 62,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>47,56; 50,14</t>
+          <t>47,54; 50,01</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>54,24; 56,73</t>
+          <t>54,3; 56,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50,39; 52,94</t>
+          <t>50,38; 52,87</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>41,71; 51,2</t>
+          <t>41,36; 50,82</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>193189</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>221866</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>204808</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>209885</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>155626</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>177135</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>168562</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>198646</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>348815</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>373370</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>408532</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>171310; 215330</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>200213; 244018</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>184085; 224386</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>186601; 232201</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>138923; 173276</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>157930; 195224</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>148968; 188226</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>181661; 216774</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>319913; 377087</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>370318; 427265</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>344721; 400407</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>380470; 437140</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>142891</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>202181</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>174630</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>165191</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>204034</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>217569</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>197556</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>188518</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>346925</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>419750</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>372186</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>353708</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>123654; 161599</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>181450; 224232</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>154791; 195775</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>144402; 186321</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>184767; 223974</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>196610; 235975</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>178646; 216477</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>171783; 204691</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>318256; 373322</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>392570; 452409</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>347145; 401320</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>325532; 380677</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>243071</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>333969</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>264611</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>189133</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96280</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>171130</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>100763</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>89742</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>339351</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>505099</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>365373</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>278874</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>217942; 265284</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>310012; 360700</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>242207; 289357</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>65185; 305882</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>82337; 108954</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>155478; 186996</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>86533; 113958</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79660; 99601</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>311962; 364732</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>474348; 537268</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>336980; 390468</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>117024; 406123</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>597429</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>595054</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>579379</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>441917</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>381896</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>468330</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>456751</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>579007</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>979326</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1063385</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1036130</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1020925</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>561358; 631030</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>555998; 631817</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>547447; 615804</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>405900; 474272</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>352558; 409617</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>442370; 498940</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>427983; 484688</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>464353; 770952</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>937319; 1026069</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1014420; 1105230</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>988295; 1083743</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>893995; 1331290</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>150839</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>237273</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>313849</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>217614</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>332535</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>493330</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>465125</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>473535</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>483374</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>730603</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>778974</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>691148</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>132811; 170576</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>213549; 260915</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>286452; 339711</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>192565; 237965</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>308230; 356458</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>465941; 521622</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>438434; 492621</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>417650; 557175</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>454541; 513940</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>695142; 765832</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>739884; 817551</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>632197; 788387</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>86670</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>85887</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>93175</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>64403</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>659454</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>669740</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>550446</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>383677</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>746123</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>755627</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>643620</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>448080</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>68976; 100791</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>71137; 100870</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>77301; 109325</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>42707; 90311</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>621916; 694243</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>637654; 703925</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>518861; 584664</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>358162; 411380</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>704927; 783761</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>717904; 793777</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>605902; 682960</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>414384; 483058</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1567</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1479</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2034</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1825</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2761</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3161</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3384</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4240</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1414089</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1676228</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1630452</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1288143</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1829825</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2197235</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1939201</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1913125</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3243914</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3873463</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3569653</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3201268</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1359187; 1471585</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1616859; 1735751</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1571990; 1688811</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>986894; 1409180</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1772605; 1889024</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2140915; 2260604</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1880280; 2000762</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1779209; 2239311</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3160800; 3325063</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3785816; 3951832</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3484703; 3657159</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2862363; 3516830</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/MCS12_SP_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
